--- a/UploadList/UploadStudentList_tid2.xlsx
+++ b/UploadList/UploadStudentList_tid2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ALLForFYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/socally/AllFYP/FYPDeploy/UploadList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC54FF0-0AB3-48A2-90D4-3BE691B1E63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC8C0D9-1CC8-B24E-88F0-1540BA75F297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>studentname</t>
   </si>
@@ -45,37 +45,38 @@
   </si>
   <si>
     <t>topic</t>
-  </si>
-  <si>
-    <t>Emily</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fanny</t>
+    <t>A Mobile App to search for the food addictives by computer vision</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>how to get efg</t>
+    <t>Python Online Practice System</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>where is efg</t>
+    <t>credit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sid21111</t>
+    <t>sid021111</t>
+  </si>
+  <si>
+    <t>spw021111</t>
+  </si>
+  <si>
+    <t>sid022222</t>
+  </si>
+  <si>
+    <t>spw022222</t>
+  </si>
+  <si>
+    <t>2Emily</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sid22222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spw21111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spw22222</t>
+    <t>2Fanny</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,21 +436,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,33 +463,42 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="E2">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
